--- a/validation/insurance_fm/location_fm.xlsx
+++ b/validation/insurance_fm/location_fm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_branch\validation\insurance_fm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08644811-BB8E-4004-BACF-9BE03FE0FB49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA846CC0-7410-42FB-B3E2-4A41477A885A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7AA4BAE3-08AC-4DFB-A8E6-9FDCEC5EA9D9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="92">
   <si>
     <t>PortNumber</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>LocLimit2Other</t>
+  </si>
+  <si>
+    <t>LocMinDed6All</t>
   </si>
 </sst>
 </file>
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536FC415-5BB6-405B-87B6-FE54E8C2F3AA}">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD35" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1:BP63"/>
+    <sheetView tabSelected="1" topLeftCell="T10" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +731,7 @@
     <col min="64" max="64" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -933,8 +936,11 @@
       <c r="BP1" t="s">
         <v>90</v>
       </c>
+      <c r="BQ1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1139,8 +1145,11 @@
       <c r="BP2">
         <v>90000</v>
       </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1345,8 +1354,11 @@
       <c r="BP3">
         <v>0</v>
       </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1551,8 +1563,11 @@
       <c r="BP4">
         <v>0</v>
       </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1757,8 +1772,11 @@
       <c r="BP5">
         <v>0</v>
       </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1963,8 +1981,11 @@
       <c r="BP6">
         <v>0</v>
       </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -2169,8 +2190,11 @@
       <c r="BP7">
         <v>0</v>
       </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2375,8 +2399,11 @@
       <c r="BP8">
         <v>0</v>
       </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2581,8 +2608,11 @@
       <c r="BP9">
         <v>0</v>
       </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2787,8 +2817,11 @@
       <c r="BP10">
         <v>0</v>
       </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2993,8 +3026,11 @@
       <c r="BP11">
         <v>0</v>
       </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -3199,8 +3235,11 @@
       <c r="BP12">
         <v>0</v>
       </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3405,8 +3444,11 @@
       <c r="BP13">
         <v>0</v>
       </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3611,8 +3653,11 @@
       <c r="BP14">
         <v>0</v>
       </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3680,7 +3725,7 @@
         <v>6971414</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="X15" t="s">
         <v>83</v>
@@ -3817,8 +3862,11 @@
       <c r="BP15">
         <v>0</v>
       </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3886,7 +3934,7 @@
         <v>7742781</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="X16" t="s">
         <v>83</v>
@@ -4023,8 +4071,11 @@
       <c r="BP16">
         <v>0</v>
       </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -4092,7 +4143,7 @@
         <v>3651644</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="X17" t="s">
         <v>83</v>
@@ -4229,8 +4280,11 @@
       <c r="BP17">
         <v>0</v>
       </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -4298,7 +4352,7 @@
         <v>3947225</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="X18" t="s">
         <v>83</v>
@@ -4435,8 +4489,11 @@
       <c r="BP18">
         <v>0</v>
       </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -4504,7 +4561,7 @@
         <v>1319339</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="X19" t="s">
         <v>83</v>
@@ -4641,8 +4698,11 @@
       <c r="BP19">
         <v>0</v>
       </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -4710,7 +4770,7 @@
         <v>1389718</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="X20" t="s">
         <v>83</v>
@@ -4847,8 +4907,11 @@
       <c r="BP20">
         <v>0</v>
       </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -4916,7 +4979,7 @@
         <v>3064532</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="X21" t="s">
         <v>83</v>
@@ -5053,8 +5116,11 @@
       <c r="BP21">
         <v>0</v>
       </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -5122,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X22" t="s">
         <v>83</v>
@@ -5259,8 +5325,11 @@
       <c r="BP22">
         <v>0</v>
       </c>
+      <c r="BQ22">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -5328,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X23" t="s">
         <v>83</v>
@@ -5465,8 +5534,11 @@
       <c r="BP23">
         <v>0</v>
       </c>
+      <c r="BQ23">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -5534,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X24" t="s">
         <v>83</v>
@@ -5671,8 +5743,11 @@
       <c r="BP24">
         <v>0</v>
       </c>
+      <c r="BQ24">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -5740,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X25" t="s">
         <v>83</v>
@@ -5877,8 +5952,11 @@
       <c r="BP25">
         <v>0</v>
       </c>
+      <c r="BQ25">
+        <v>78783.03</v>
+      </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -5946,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X26" t="s">
         <v>83</v>
@@ -6083,8 +6161,11 @@
       <c r="BP26">
         <v>0</v>
       </c>
+      <c r="BQ26">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -6152,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X27" t="s">
         <v>83</v>
@@ -6289,8 +6370,11 @@
       <c r="BP27">
         <v>0</v>
       </c>
+      <c r="BQ27">
+        <v>89642.04</v>
+      </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -6358,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X28" t="s">
         <v>83</v>
@@ -6495,8 +6579,11 @@
       <c r="BP28">
         <v>0</v>
       </c>
+      <c r="BQ28">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -6564,7 +6651,7 @@
         <v>2556066.1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X29" t="s">
         <v>83</v>
@@ -6701,8 +6788,11 @@
       <c r="BP29">
         <v>0</v>
       </c>
+      <c r="BQ29">
+        <v>85681.982999999993</v>
+      </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -6770,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X30" t="s">
         <v>83</v>
@@ -6907,8 +6997,11 @@
       <c r="BP30">
         <v>0</v>
       </c>
+      <c r="BQ30">
+        <v>140183.82</v>
+      </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -6976,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="X31" t="s">
         <v>83</v>
@@ -7113,8 +7206,11 @@
       <c r="BP31">
         <v>0</v>
       </c>
+      <c r="BQ31">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -7182,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1163</v>
       </c>
       <c r="X32" t="s">
         <v>83</v>
@@ -7319,8 +7415,11 @@
       <c r="BP32">
         <v>0</v>
       </c>
+      <c r="BQ32">
+        <v>462684.45</v>
+      </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -7525,8 +7624,11 @@
       <c r="BP33">
         <v>0</v>
       </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -7731,8 +7833,11 @@
       <c r="BP34">
         <v>0</v>
       </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -7937,8 +8042,11 @@
       <c r="BP35">
         <v>0</v>
       </c>
+      <c r="BQ35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -8143,8 +8251,11 @@
       <c r="BP36">
         <v>0</v>
       </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -8349,8 +8460,11 @@
       <c r="BP37">
         <v>0</v>
       </c>
+      <c r="BQ37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -8555,8 +8669,11 @@
       <c r="BP38">
         <v>0</v>
       </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -8761,8 +8878,11 @@
       <c r="BP39">
         <v>0</v>
       </c>
+      <c r="BQ39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -8967,8 +9087,11 @@
       <c r="BP40">
         <v>0</v>
       </c>
+      <c r="BQ40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -9173,8 +9296,11 @@
       <c r="BP41">
         <v>0</v>
       </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -9379,8 +9505,11 @@
       <c r="BP42">
         <v>0</v>
       </c>
+      <c r="BQ42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -9585,8 +9714,11 @@
       <c r="BP43">
         <v>0</v>
       </c>
+      <c r="BQ43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -9791,8 +9923,11 @@
       <c r="BP44">
         <v>0</v>
       </c>
+      <c r="BQ44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -9997,8 +10132,11 @@
       <c r="BP45">
         <v>0</v>
       </c>
+      <c r="BQ45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -10203,8 +10341,11 @@
       <c r="BP46">
         <v>0</v>
       </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -10409,8 +10550,11 @@
       <c r="BP47">
         <v>0</v>
       </c>
+      <c r="BQ47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -10615,8 +10759,11 @@
       <c r="BP48">
         <v>0</v>
       </c>
+      <c r="BQ48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -10821,8 +10968,11 @@
       <c r="BP49">
         <v>0</v>
       </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -11027,8 +11177,11 @@
       <c r="BP50">
         <v>0</v>
       </c>
+      <c r="BQ50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -11233,8 +11386,11 @@
       <c r="BP51">
         <v>0</v>
       </c>
+      <c r="BQ51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -11439,8 +11595,11 @@
       <c r="BP52">
         <v>0</v>
       </c>
+      <c r="BQ52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -11645,8 +11804,11 @@
       <c r="BP53">
         <v>0</v>
       </c>
+      <c r="BQ53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -11851,8 +12013,11 @@
       <c r="BP54">
         <v>0</v>
       </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -12057,8 +12222,11 @@
       <c r="BP55">
         <v>0</v>
       </c>
+      <c r="BQ55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -12263,8 +12431,11 @@
       <c r="BP56">
         <v>0</v>
       </c>
+      <c r="BQ56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -12469,8 +12640,11 @@
       <c r="BP57">
         <v>0</v>
       </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -12675,8 +12849,11 @@
       <c r="BP58">
         <v>0</v>
       </c>
+      <c r="BQ58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -12881,8 +13058,11 @@
       <c r="BP59">
         <v>0</v>
       </c>
+      <c r="BQ59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -13087,8 +13267,11 @@
       <c r="BP60">
         <v>0</v>
       </c>
+      <c r="BQ60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -13293,8 +13476,11 @@
       <c r="BP61">
         <v>0</v>
       </c>
+      <c r="BQ61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -13499,8 +13685,11 @@
       <c r="BP62">
         <v>0</v>
       </c>
+      <c r="BQ62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -13703,6 +13892,9 @@
         <v>0</v>
       </c>
       <c r="BP63">
+        <v>0</v>
+      </c>
+      <c r="BQ63">
         <v>0</v>
       </c>
     </row>
